--- a/List_jobs.xlsx
+++ b/List_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,14 +451,14 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Job Tags</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Company Name</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Job Tags</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Job Loc</t>
@@ -466,97 +466,72 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>List of infos from company</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Recommandation de l'entreprise</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CEO Approval</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Note globale</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>lightbulb</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 16</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 17</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>EcoCompany name</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>Ecoscore</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Company name</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Company infos</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>verified</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>checklist</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>lightbulb</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Équipe dirigeante</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Diversité et inclusion</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Rémunération et avantages</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Équilibre travail/vie privée</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Culture et valeurs</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Opportunités de carrière</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>4 étoiles</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>3 étoiles</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>5 étoiles</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2 étoiles</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>1 étoile</t>
         </is>
       </c>
     </row>
@@ -569,121 +544,793 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DATA TECH LEAD</t>
+          <t>Chef/fe de projet Data Analyst et solutions digitales</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3795100435</v>
+        <v>3728085387</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services</t>
+          <t>[('job', 'Sur site Temps plein Manager'), ('company', '+ de 10 000 employés · Services professionnels'), ('checklist', 'Compétences : Esprit, Compétences culinaires et 8 en plus'), ('verified', 'Consultez les vérifications liées à cette offre d’emploi.\nConsultez les vérifications liées à cette offre d’emploi.\nTout afficher'), ('lightbulb', 'Découvrez comment vous vous positionnez par rapport à 49 candidats. Essai Premium pour 0 EUR')]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('job', 'Sur site Temps plein Confirmé'), ('company', '+ de 10 000 employés · Services et conseil en informatique'), ('checklist', 'Compétences : Python (langage de programmation), Scala et 1 en plus'), ('verified', 'Consultez les vérifications liées à cette offre d’emploi.\nConsultez les vérifications liées à cette offre d’emploi.\nTout afficher'), ('lightbulb', 'Découvrez comment vous vous positionnez par rapport à 21 candidats. Essai Premium pour 0 EUR')]</t>
+          <t>Arcadis</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'Ville': 'Ville de Paris', 'Région': 'Île-de-France', 'Pays': 'France'}</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Tata Consultancy Services</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['www.tcs.com/', 'Mumbai, Inde', 'Plus de 10 000 employés', '39 lieux', 'Type : Entreprise cotée en bourse (TCSN)', 'Fondée en 1968', 'Revenu : Plus de 10 milliards de dollars US', 'Développement de logiciels']</t>
-        </is>
-      </c>
+          <t>{'Ville': 'Paris', 'Région': 'Île-de-France', 'Pays': 'France'}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>('www.arcadis.com', 'Amsterdam, Pays-Bas', 'Plus de 10 000 employés', '25 lieux', 'Type : Entreprise cotée en bourse ( ARCAD)', 'Fondée en 1888', 'Revenu : Ne sait pas / non applicable', 'Construction')</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
+        <is>
+          <t>Alan Brookes</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Découvrez comment vous vous positionnez par rapport à 49 candidats. Essai Premium pour 0 EUR</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Consultez les vérifications liées à cette offre d’emploi.
 Consultez les vérifications liées à cette offre d’emploi.
 Tout afficher</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Compétences : Python (langage de programmation), Scala et 1 en plus</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Sur site Temps plein Confirmé</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Découvrez comment vous vous positionnez par rapport à 21 candidats. Essai Premium pour 0 EUR</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>+ de 10 000 employés · Services et conseil en informatique</t>
+          <t>+ de 10 000 employés · Services professionnels</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>Compétences : Esprit, Compétences culinaires et 8 en plus</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>4,0</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>3,8</t>
-        </is>
-      </c>
+          <t>Sur site Temps plein Manager</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>3,9</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>3,7</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>38 %</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>23 %</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>31 %</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5 %</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>3 %</t>
-        </is>
+          <t>ARCADIS ESG</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Senior Biostatistician</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3784436449</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[('job', 'Hybride Temps plein Manager'), ('company', '501-1 000 employés · Services de recherche'), ('checklist', 'Compétences : Normes CDISC, Modèle SDTM et 8 en plus'), ('verified', 'Consultez les vérifications liées à cette offre d’emploi.\nConsultez les vérifications liées à cette offre d’emploi.\nTout afficher'), ('lightbulb', 'Découvrez comment vous vous positionnez par rapport à 39 candidats. Essai Premium pour 0 EUR')]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cerner Enviza</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'Ville': 'Ville de Paris', 'Région': 'Île-de-France', 'Pays': 'France'}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Découvrez comment vous vous positionnez par rapport à 39 candidats. Essai Premium pour 0 EUR</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Consultez les vérifications liées à cette offre d’emploi.
+Consultez les vérifications liées à cette offre d’emploi.
+Tout afficher</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>501-1 000 employés · Services de recherche</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Compétences : Normes CDISC, Modèle SDTM et 8 en plus</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Hybride Temps plein Manager</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Cerner Enviza</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Senior Quantitative Researcher</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3806785203</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[('job', 'Hybride Temps plein Manager'), ('company', '1 001-5 000 employés · Services professionnels'), ('checklist', 'Compétences : Recherche fondamentale'), ('verified', 'Consultez les vérifications liées à cette offre d’emploi.\nConsultez les vérifications liées à cette offre d’emploi.\nTout afficher'), ('lightbulb', 'Découvrez comment vous vous positionnez par rapport à 49 candidats. Essai Premium pour 0 EUR')]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selby Jennings</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'Ville': 'Ville de Paris', 'Région': 'Île-de-France', 'Pays': 'France'}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>('www.selbyjennings.com', 'Londres, Royaume-Uni', 'Entre 201 et 500 employés', '4 lieux', "Type : Succursale ou unité d''exploitation", 'Fondée en 2004', 'Revenu : Entre 5 et 25 millions de dollars US', 'Conseil en ressources humaines')</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Harry Youtan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Découvrez comment vous vous positionnez par rapport à 49 candidats. Essai Premium pour 0 EUR</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Consultez les vérifications liées à cette offre d’emploi.
+Consultez les vérifications liées à cette offre d’emploi.
+Tout afficher</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1 001-5 000 employés · Services professionnels</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Compétences : Recherche fondamentale</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Hybride Temps plein Manager</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Selby Jennings</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Consultant Data analytics</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3788989616</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[('job', 'Hybride Temps plein'), ('company', '51-200 employés'), ('checklist', 'Compétences : Communication interpersonnelle, Web analytique et 8 en plus'), ('lightbulb', 'Découvrez comment vous vous positionnez par rapport à 49 candidats. Essai Premium pour 0 EUR')]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PIXALIONE | SEO, SEA, SMA &amp; DATA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'Ville': 'Ville de Paris', 'Région': 'Île-de-France', 'Pays': 'France'}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Découvrez comment vous vous positionnez par rapport à 49 candidats. Essai Premium pour 0 EUR</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>51-200 employés</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Compétences : Communication interpersonnelle, Web analytique et 8 en plus</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Hybride Temps plein</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>PIXALIONE | SEO, SEA, SMA &amp; DATA</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Data Analyste Tableau (H/F)</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3800214705</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[('job', 'Hybride Temps plein Confirmé'), ('company', '501-1 000 employés · Services et conseil en informatique'), ('checklist', 'Compétences : Tableau, Compétences analytiques et 8 en plus'), ('verified', 'Consultez les vérifications liées à cette offre d’emploi.\nConsultez les vérifications liées à cette offre d’emploi.\nTout afficher'), ('lightbulb', 'Découvrez comment vous vous positionnez par rapport à plus de 100 autres candidats. Essai Premium pour 0 EUR')]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Meritis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'Ville': 'Ville de Paris', 'Région': 'Île-de-France', 'Pays': 'France'}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>('www.meritis.fr', 'Paris, France', 'De 501 à 1 000 employés', '6 lieux', 'Type : Entreprise non cotée en bourse', 'Fondée en 2007', 'Revenu : Ne sait pas / non applicable', 'Conseil aux entreprises')</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sébastien Videment</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Découvrez comment vous vous positionnez par rapport à plus de 100 autres candidats. Essai Premium pour 0 EUR</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Consultez les vérifications liées à cette offre d’emploi.
+Consultez les vérifications liées à cette offre d’emploi.
+Tout afficher</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>501-1 000 employés · Services et conseil en informatique</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Compétences : Tableau, Compétences analytiques et 8 en plus</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Hybride Temps plein Confirmé</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Meritis</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Data Analyst senior (H/F)</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3785359296</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[('job', 'Hybride Temps plein Manager'), ('company', '51-200 employés · Services et conseil en informatique'), ('checklist', 'Compétences : Compétences analytiques, Autonomie et 8 en plus'), ('lightbulb', 'Découvrez comment vous vous positionnez par rapport à 38 candidats. Essai Premium pour 0 EUR')]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LittleBigCode</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'Ville': 'Ville de Paris', 'Région': 'Île-de-France', 'Pays': 'France'}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Charles Armataffet</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Découvrez comment vous vous positionnez par rapport à 38 candidats. Essai Premium pour 0 EUR</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>51-200 employés · Services et conseil en informatique</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Compétences : Compétences analytiques, Autonomie et 8 en plus</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Hybride Temps plein Manager</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>LittleBigCode</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Consultant(e) Confirmé(e) Quant risque de marché - CDI (H/F)</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3765442965</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[('job', 'Hybride Temps plein Confirmé'), ('company', '51-200 employés · Services et conseil aux entreprises'), ('checklist', 'Compétences : Risque de marché, Marchés financiers et 8 en plus'), ('verified', 'Consultez les vérifications liées à cette offre d’emploi.\nConsultez les vérifications liées à cette offre d’emploi.\nTout afficher'), ('lightbulb', 'Découvrez comment vous vous positionnez par rapport à 63 candidats. Essai Premium pour 0 EUR')]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nexialog Consulting</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{'Ville': 'Ville de Paris', 'Région': 'Île-de-France', 'Pays': 'France'}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Découvrez comment vous vous positionnez par rapport à 63 candidats. Essai Premium pour 0 EUR</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Consultez les vérifications liées à cette offre d’emploi.
+Consultez les vérifications liées à cette offre d’emploi.
+Tout afficher</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>51-200 employés · Services et conseil aux entreprises</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Compétences : Risque de marché, Marchés financiers et 8 en plus</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Hybride Temps plein Confirmé</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Nexialog Consulting</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst H/F</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3783558978</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[('job', 'Sur site Temps partiel Confirmé'), ('company', '501-1 000 employés · Services et conseil en informatique'), ('checklist', 'Compétences : Anglais, Informatique décisionnelle et 8 en plus'), ('verified', 'Consultez les vérifications liées à cette offre d’emploi.\nConsultez les vérifications liées à cette offre d’emploi.\nTout afficher'), ('lightbulb', 'Découvrez comment vous vous positionnez par rapport à plus de 100 autres candidats. Essai Premium pour 0 EUR')]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Meritis</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'Ville': 'Ville de Paris', 'Région': 'Île-de-France', 'Pays': 'France'}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>('www.meritis.fr', 'Paris, France', 'De 501 à 1 000 employés', '6 lieux', 'Type : Entreprise non cotée en bourse', 'Fondée en 2007', 'Revenu : Ne sait pas / non applicable', 'Conseil aux entreprises')</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Sébastien Videment</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Découvrez comment vous vous positionnez par rapport à plus de 100 autres candidats. Essai Premium pour 0 EUR</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Consultez les vérifications liées à cette offre d’emploi.
+Consultez les vérifications liées à cette offre d’emploi.
+Tout afficher</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>501-1 000 employés · Services et conseil en informatique</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Compétences : Tableau, Compétences analytiques et 8 en plus</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Hybride Temps plein Confirmé</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Meritis</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst (Product Team) (Bangkok Based, relocation provided)</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3750109674</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Agoda</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{'Ville': 'Paris', 'Région': 'Île-de-France', 'Pays': 'France'}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Découvrez comment vous vous positionnez par rapport à plus de 100 autres candidats. Essai Premium pour 0 EUR</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Consultez les vérifications liées à cette offre d’emploi.
+Consultez les vérifications liées à cette offre d’emploi.
+Tout afficher</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>501-1 000 employés · Services et conseil en informatique</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Compétences : Anglais, Informatique décisionnelle et 8 en plus</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Sur site Temps partiel Confirmé</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Nexialog Consulting</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Analyst/Senior Analyst (Analytics, Bangkok-based, Relocation provided)</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3750889659</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[('job', 'Temps plein Manager'), ('company', '5 001-10 000 employés · Développement de logiciels'), ('checklist', 'Compétences : Science des données, Informations commerciales et 8 en plus'), ('verified', 'Consultez les vérifications liées à cette offre d’emploi.\nConsultez les vérifications liées à cette offre d’emploi.\nTout afficher'), ('lightbulb', 'Découvrez comment vous vous positionnez par rapport à 10 candidats. Essai Premium pour 0 EUR')]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Agoda</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'Ville': 'Paris', 'Région': 'Île-de-France', 'Pays': 'France'}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Découvrez comment vous vous positionnez par rapport à plus de 100 autres candidats. Essai Premium pour 0 EUR</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Consultez les vérifications liées à cette offre d’emploi.
+Consultez les vérifications liées à cette offre d’emploi.
+Tout afficher</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>501-1 000 employés · Services et conseil en informatique</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Compétences : Anglais, Informatique décisionnelle et 8 en plus</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Sur site Temps partiel Confirmé</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Nexialog Consulting</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
